--- a/orders.xlsx
+++ b/orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,243 +452,243 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37113</v>
+        <v>37122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cowl 0 3</t>
+          <t>cowl 1 1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12068</v>
+        <v>50008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cowl 0 0</t>
+          <t>cowl 1 2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23153</v>
+        <v>23658</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cowl 0 1</t>
+          <t>cowl 1 3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21027</v>
+        <v>32626</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cowl 1 1</t>
+          <t>cowl 2 0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50006</v>
+        <v>30014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cowl 1 2</t>
+          <t>cowl 2 1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23639</v>
+        <v>24396</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cowl 1 3</t>
+          <t>cowl 2 2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32606</v>
+        <v>14708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cowl 2 0</t>
+          <t>cowl 3 1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30014</v>
+        <v>10627</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cowl 2 1</t>
+          <t>cowl 3 2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24396</v>
+        <v>11146</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cowl 2 2</t>
+          <t>cowl 3 3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14693</v>
+        <v>13256</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cowl 3 1</t>
+          <t>cowl 4 0</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10610</v>
+        <v>29402</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>cowl 3 2</t>
+          <t>cowl 4 1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11131</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cowl 3 3</t>
+          <t>cowl 4 2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13256</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cowl 4 0</t>
+          <t>cowl 4 3</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29393</v>
+        <v>24423</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>cowl 4 1</t>
+          <t>robe 0 1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10001</v>
+        <v>15005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>cowl 4 2</t>
+          <t>robe 0 2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10001</v>
+        <v>15005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>cowl 4 3</t>
+          <t>robe 0 3</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24423</v>
+        <v>15010</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>robe 0 0</t>
+          <t>robe 1 1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20002</v>
+        <v>60006</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>robe 0 1</t>
+          <t>robe 3 2</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15003</v>
+        <v>49989</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>robe 0 2</t>
+          <t>robe 4 0</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15003</v>
+        <v>48158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>robe 0 3</t>
+          <t>robe 4 2</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15007</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>robe 1 1</t>
+          <t>sandals 1 1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60001</v>
+        <v>25006</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>robe 3 2</t>
+          <t>sandals 2 2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49972</v>
+        <v>30010</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>robe 4 0</t>
+          <t>sandals 2 3</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48149</v>
+        <v>50008</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>robe 4 2</t>
+          <t>sandals 3 0</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,247 +698,247 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sandals 0 0</t>
+          <t>sandals 3 2</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15010</v>
+        <v>12059</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sandals 0 1</t>
+          <t>sandals 4 1</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30002</v>
+        <v>12004</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sandals 0 2</t>
+          <t>sandals 4 2</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>42701</v>
+        <v>20263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sandals 0 3</t>
+          <t>helmet 0 2</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>45005</v>
+        <v>21072</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sandals 1 1</t>
+          <t>helmet 1 0</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25001</v>
+        <v>33178</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sandals 2 2</t>
+          <t>helmet 1 1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15040</v>
+        <v>50734</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sandals 2 3</t>
+          <t>helmet 1 3</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>45806</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sandals 3 0</t>
+          <t>helmet 2 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10001</v>
+        <v>47203</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sandals 3 2</t>
+          <t>helmet 2 2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12041</v>
+        <v>30159</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sandals 4 1</t>
+          <t>helmet 3 0</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12004</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sandals 4 2</t>
+          <t>helmet 3 1</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20263</v>
+        <v>10011</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>helmet 0 0</t>
+          <t>helmet 3 2</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>10001</v>
+        <v>15049</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>helmet 0 1</t>
+          <t>helmet 4 0</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20026</v>
+        <v>12040</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>helmet 0 2</t>
+          <t>helmet 4 1</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21070</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>helmet 0 3</t>
+          <t>helmet 4 2</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25002</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>helmet 1 0</t>
+          <t>armor 0 1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33178</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>helmet 1 1</t>
+          <t>armor 0 2</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50734</v>
+        <v>28834</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>helmet 1 3</t>
+          <t>armor 1 1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>45002</v>
+        <v>55397</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>helmet 2 1</t>
+          <t>armor 2 1</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>47199</v>
+        <v>12033</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>helmet 2 2</t>
+          <t>armor 3 0</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30141</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>helmet 3 0</t>
+          <t>armor 3 1</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>10001</v>
+        <v>12042</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>helmet 3 1</t>
+          <t>armor 3 2</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10001</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>helmet 3 2</t>
+          <t>armor 4 0</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>15031</v>
+        <v>12034</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>helmet 4 0</t>
+          <t>armor 4 1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>12031</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>helmet 4 1</t>
+          <t>armor 4 2</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,117 +948,117 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>helmet 4 2</t>
+          <t>boots 0 1</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>10001</v>
+        <v>37967</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>armor 0 0</t>
+          <t>boots 0 3</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>10005</v>
+        <v>10031</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>armor 0 1</t>
+          <t>boots 1 0</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>10002</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>armor 0 2</t>
+          <t>boots 1 3</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>28832</v>
+        <v>17179</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>armor 0 3</t>
+          <t>boots 2 2</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>45544</v>
+        <v>44514</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>armor 1 1</t>
+          <t>boots 2 3</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>55393</v>
+        <v>15510</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>armor 2 1</t>
+          <t>boots 3 0</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>12029</v>
+        <v>13025</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>armor 3 0</t>
+          <t>boots 3 1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>10001</v>
+        <v>12041</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>armor 3 1</t>
+          <t>boots 3 2</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>12033</v>
+        <v>31078</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>armor 3 2</t>
+          <t>boots 4 0</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>10001</v>
+        <v>13029</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>armor 4 0</t>
+          <t>boots 4 1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>12024</v>
+        <v>12009</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>armor 4 1</t>
+          <t>boots 4 2</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,227 +1068,227 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>armor 4 2</t>
+          <t>hood 0 1</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>10001</v>
+        <v>42394</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>boots 0 0</t>
+          <t>hood 0 2</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>46010</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>boots 0 1</t>
+          <t>hood 1 2</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>37967</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>boots 0 2</t>
+          <t>hood 1 3</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>41140</v>
+        <v>44393</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>boots 0 3</t>
+          <t>hood 2 2</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>10012</v>
+        <v>20052</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>boots 1 0</t>
+          <t>hood 2 3</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10001</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>boots 1 3</t>
+          <t>hood 4 2</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>17018</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>boots 2 2</t>
+          <t>jacket 0 0</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>44496</v>
+        <v>35031</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>boots 2 3</t>
+          <t>jacket 2 3</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>15001</v>
+        <v>55635</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>boots 3 0</t>
+          <t>jacket 3 1</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>13025</v>
+        <v>59169</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>boots 3 1</t>
+          <t>jacket 4 0</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>12032</v>
+        <v>12049</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>boots 3 2</t>
+          <t>jacket 4 1</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>31060</v>
+        <v>50046</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>boots 4 0</t>
+          <t>jacket 4 2</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>13020</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>boots 4 1</t>
+          <t>shoes 0 0</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>12009</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>boots 4 2</t>
+          <t>shoes 0 1</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>10001</v>
+        <v>16003</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>hood 0 0</t>
+          <t>shoes 0 3</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>50001</v>
+        <v>55006</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>hood 0 1</t>
+          <t>shoes 1 3</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>42392</v>
+        <v>29263</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>hood 0 2</t>
+          <t>shoes 2 1</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>10001</v>
+        <v>59245</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>hood 0 3</t>
+          <t>shoes 3 1</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>45021</v>
+        <v>35060</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>hood 1 2</t>
+          <t>shoes 3 2</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>45581</v>
+        <v>12038</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>hood 1 3</t>
+          <t>shoes 4 0</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>44374</v>
+        <v>55063</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>hood 2 2</t>
+          <t>shoes 4 1</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>20033</v>
+        <v>37010</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>hood 2 3</t>
+          <t>shoes 4 2</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,201 +1298,241 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>hood 4 2</t>
+          <t>robe 3 1</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>10001</v>
+        <v>61004</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>jacket 0 0</t>
+          <t>boots 1 1</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>35029</v>
+        <v>60006</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>jacket 0 1</t>
+          <t>armor 0 3</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>58822</v>
+        <v>45562</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>jacket 0 2</t>
+          <t>helmet 0 3</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>10012</v>
+        <v>25022</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>jacket 2 3</t>
+          <t>cowl 0 0</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>55621</v>
+        <v>23155</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>jacket 3 1</t>
+          <t>cowl 0 1</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>59162</v>
+        <v>21029</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>jacket 4 0</t>
+          <t>cowl 0 3</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>12041</v>
+        <v>12077</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>jacket 4 1</t>
+          <t>robe 0 0</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>50046</v>
+        <v>25001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>jacket 4 2</t>
+          <t>sandals 0 0</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>10001</v>
+        <v>15013</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>shoes 0 0</t>
+          <t>sandals 0 1</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>10001</v>
+        <v>30019</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>shoes 0 1</t>
+          <t>sandals 0 2</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>16001</v>
+        <v>42702</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>shoes 0 2</t>
+          <t>sandals 0 3</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>45005</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>shoes 0 3</t>
+          <t>helmet 0 0</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>55004</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>shoes 1 3</t>
+          <t>helmet 0 1</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>29246</v>
+        <v>20030</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>shoes 2 1</t>
+          <t>armor 0 0</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>59245</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>shoes 3 1</t>
+          <t>boots 0 0</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>35050</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>shoes 3 2</t>
+          <t>boots 0 2</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>12022</v>
+        <v>41140</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>shoes 4 0</t>
+          <t>hood 0 0</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>55053</v>
+        <v>50001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>shoes 4 1</t>
+          <t>hood 0 3</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>37010</v>
+        <v>50002</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>shoes 4 2</t>
+          <t>jacket 0 1</t>
         </is>
       </c>
       <c r="B106" t="n">
+        <v>58822</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>jacket 0 2</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>jacket 0 3</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
         <v>10001</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>shoes 0 2</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>shoes 1 0</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>61002</v>
       </c>
     </row>
   </sheetData>
